--- a/mAP graph.xlsx
+++ b/mAP graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smu-my.sharepoint.com/personal/jieyong_er_2010_business_smu_edu_sg/Documents/Programming/00 github/ViShield_Computer_Vision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{24A491F1-5CB5-4C0C-B1EF-90E6C61DED06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06294F72-F121-417B-AF19-0A5BEF4FE733}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{24A491F1-5CB5-4C0C-B1EF-90E6C61DED06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D1CCE96-BAE0-4A31-983C-3F7BF50982BD}"/>
   <bookViews>
-    <workbookView xWindow="6315" yWindow="3270" windowWidth="14370" windowHeight="11490" xr2:uid="{78F89402-94D1-4A7F-BD19-22A5041728BD}"/>
+    <workbookView xWindow="10080" yWindow="6252" windowWidth="22212" windowHeight="12732" xr2:uid="{78F89402-94D1-4A7F-BD19-22A5041728BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,13 +222,13 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.7</c:v>
@@ -273,7 +273,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.67</c:v>
@@ -1499,12 +1499,12 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1560,31 +1560,31 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="B9">
-        <v>0.67</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.67</v>
       </c>
       <c r="B10">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.67</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.67</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.67</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.67</v>
       </c>
